--- a/results/I3_N5_M3_T45_C100_DepCentral_s4_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>871.8646384133266</v>
+        <v>442.3346384127427</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.305999994277954</v>
+        <v>1.815000057220459</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.33463841274267</v>
+        <v>32.33463841274268</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.058243911687825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.058243911687825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>839.530000000584</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -904,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.23516695818518</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -928,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39.85439022078045</v>
+        <v>36.65075183719856</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,34 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000045</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1134,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000039</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1145,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000027</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1156,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000029</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1167,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.6050000000032</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1178,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>142.9850000000334</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1189,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>153.2850000000327</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1200,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>157.2950000000383</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1211,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>166.6850000000341</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1222,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.3350000000391</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1233,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000444</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1244,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1255,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000466</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1266,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000422</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1277,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000503</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>62.47500000000219</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
@@ -1299,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>70.31500000000234</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -1310,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>62.6600000000035</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1321,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>73.21000000000278</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
@@ -1332,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.06500000000416</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1343,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>118.480000000005</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1354,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>126.1650000000027</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1365,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>127.5100000000057</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1376,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>122.9200000000037</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -1387,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>122.4300000000057</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1398,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.9950000000044</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -1409,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>105.5100000000039</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1420,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6650000000027</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -1431,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5050000000028</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.6050000000032</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -1453,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>142.985000000049</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
@@ -1464,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2850000000519</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
@@ -1475,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>157.2950000000539</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -1486,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>166.6850000000533</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
@@ -1497,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>159.3350000000543</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -1508,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>118.480000000005</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -1519,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>126.1650000000027</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -1530,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>127.5100000000057</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
@@ -1541,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>122.9200000000037</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -1552,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>122.4300000000057</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.995000000004438</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1610,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.510000000003856</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1621,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.665000000002692</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1632,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.505000000002838</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1643,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1654,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>42.98500000004742</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1665,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.28500000005039</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1676,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>57.29500000005243</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1687,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>66.68500000005184</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1698,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>59.33500000005324</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1709,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>18.48000000000502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1720,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.16500000000269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1731,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>27.51000000000568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1742,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>22.92000000000371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1753,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.43000000000575</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1866,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1877,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1888,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1899,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2078,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2105,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2116,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2127,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2138,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2149,10 +2099,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2160,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2171,10 +2121,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2182,10 +2132,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2193,10 +2143,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2207,53 +2157,9 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
